--- a/DB_Сущности и описание.xlsx
+++ b/DB_Сущности и описание.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9285" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9285" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="142">
   <si>
     <t>Сущности</t>
   </si>
   <si>
-    <t>Локация</t>
-  </si>
-  <si>
     <t>Наименование</t>
   </si>
   <si>
@@ -394,9 +391,6 @@
     <t>Доставка ЭСО</t>
   </si>
   <si>
-    <t>Функции рабочих при сдельной оплате</t>
-  </si>
-  <si>
     <t>Доставка, более 10 км за МКАД</t>
   </si>
   <si>
@@ -412,9 +406,6 @@
     <t>Доставка авто из сервиса</t>
   </si>
   <si>
-    <t>Дополнительная оплата при вызде за пределы МО</t>
-  </si>
-  <si>
     <t>Платные дороги</t>
   </si>
   <si>
@@ -425,6 +416,42 @@
   </si>
   <si>
     <t>Проживание</t>
+  </si>
+  <si>
+    <t>Затраты по заказу</t>
+  </si>
+  <si>
+    <t>Топливо</t>
+  </si>
+  <si>
+    <t>Аренда атомобиля</t>
+  </si>
+  <si>
+    <t>Аренда ДГУ</t>
+  </si>
+  <si>
+    <t>Аренда ЭСО</t>
+  </si>
+  <si>
+    <t>Сдельная оплата персонала</t>
+  </si>
+  <si>
+    <t>Дополнительные расходы при вызде за пределы МО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Парковка </t>
+  </si>
+  <si>
+    <t>Прочие услуги</t>
+  </si>
+  <si>
+    <t>Заправка</t>
+  </si>
+  <si>
+    <t>Примечания</t>
+  </si>
+  <si>
+    <t>Расходы по заказу</t>
   </si>
 </sst>
 </file>
@@ -859,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -880,13 +907,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -906,204 +933,214 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
         <v>36</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>37</v>
       </c>
-      <c r="C23" t="s">
-        <v>38</v>
-      </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
         <v>69</v>
       </c>
-      <c r="B32" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>75</v>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1139,113 +1176,113 @@
   <sheetData>
     <row r="2" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="I3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="E4" s="3">
         <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="L4" s="3">
         <v>10</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5" s="3">
         <v>30</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -1266,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:J61"/>
+  <dimension ref="B2:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1277,7 +1314,7 @@
     <col min="1" max="1" width="11.5703125" style="7"/>
     <col min="2" max="2" width="44.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" style="7"/>
-    <col min="4" max="4" width="48.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="7"/>
     <col min="6" max="6" width="21.7109375" style="7" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" style="7"/>
@@ -1289,211 +1326,243 @@
     <col min="13" max="16384" width="11.5703125" style="7"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="9"/>
+    </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="9" t="s">
+      <c r="B6" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="B8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>20</v>
+      <c r="B9" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>85</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="9"/>
+        <v>102</v>
+      </c>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="H14" s="9"/>
+        <v>103</v>
+      </c>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="J16" s="9"/>
+        <v>99</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="8"/>
+        <v>100</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="9"/>
+      <c r="B19" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="F20" s="9"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="9"/>
+        <v>104</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="F21" s="9"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="B22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="9"/>
+      <c r="B23" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="9"/>
+        <v>106</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="F24" s="8"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="9"/>
+        <v>107</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="F25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>112</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="F26" s="8"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>51</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D27" s="9"/>
       <c r="F27" s="8"/>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="9" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="D28" s="9"/>
       <c r="F28" s="8"/>
@@ -1501,7 +1570,7 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B29" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D29" s="9"/>
       <c r="F29" s="8"/>
@@ -1509,7 +1578,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="9" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="D30" s="9"/>
       <c r="F30" s="8"/>
@@ -1517,225 +1586,215 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="9" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="D31" s="9"/>
       <c r="F31" s="8"/>
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="D32" s="9"/>
       <c r="F32" s="8"/>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" s="9"/>
-      <c r="F33" s="8"/>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="F34" s="8"/>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="9"/>
-      <c r="F35" s="8"/>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D36" s="9"/>
-      <c r="F36" s="8"/>
-      <c r="H36" s="8"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="8" t="s">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B34" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B35" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="9"/>
+      <c r="D35" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B36" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>134</v>
+      </c>
       <c r="F37" s="9"/>
-      <c r="H37" s="9"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
-        <v>58</v>
+        <v>114</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="F38" s="9"/>
-      <c r="H38" s="9"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>136</v>
+      </c>
       <c r="F39" s="9"/>
-      <c r="H39" s="9"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D40" s="9"/>
+        <v>116</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>137</v>
+      </c>
       <c r="F40" s="9"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D41" s="9"/>
+        <v>140</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="F41" s="9"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="7" t="s">
-        <v>115</v>
-      </c>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D42" s="9"/>
       <c r="F42" s="9"/>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="H43" s="8"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="7" t="s">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44" s="8"/>
+      <c r="H44" s="9"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="H44" s="8"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D45" s="9"/>
+      <c r="D45" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="F45" s="9"/>
-      <c r="H45" s="8"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D46" s="9"/>
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>127</v>
+      </c>
       <c r="F46" s="9"/>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D47" s="8" t="s">
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="H47" s="9"/>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F48" s="8"/>
-      <c r="H48" s="9"/>
+        <v>118</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="H48" s="8"/>
+      <c r="J48" s="8"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F49" s="9"/>
+        <v>119</v>
+      </c>
+      <c r="D49" s="9"/>
       <c r="H49" s="9"/>
+      <c r="J49" s="9"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F50" s="9"/>
+      <c r="D50" s="8"/>
+      <c r="H50" s="9"/>
+      <c r="J50" s="9"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F51" s="9"/>
+        <v>122</v>
+      </c>
+      <c r="D51" s="9"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F52" s="9"/>
-      <c r="H52" s="8"/>
-      <c r="J52" s="8"/>
+        <v>123</v>
+      </c>
+      <c r="D52" s="9"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" s="9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="J53" s="9"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D54" s="8"/>
-      <c r="H54" s="9"/>
-      <c r="J54" s="9"/>
+        <v>125</v>
+      </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D55" s="9"/>
+        <v>139</v>
+      </c>
+      <c r="D55" s="8"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B56" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="D56" s="9"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="D57" s="9"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B58" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D59" s="8"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D60" s="9"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D61" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
